--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,7 +1260,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3114</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,7 +2107,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,7 +2954,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1226</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +2976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3777,7 +3801,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4616,7 +4648,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5455,7 +5495,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
@@ -5469,7 +5517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,7 +6342,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2823</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,6 +1271,22 @@
         <v>3114</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1282,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,6 +2134,22 @@
         <v>1159</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2129,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,6 +2997,22 @@
         <v>1226</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2976,7 +3024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3812,6 +3860,22 @@
         <v>1869</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3823,7 +3887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4659,6 +4723,22 @@
         <v>734</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4670,7 +4750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5506,6 +5586,22 @@
         <v>1492</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5517,7 +5613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6353,6 +6449,22 @@
         <v>2823</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,7 +1284,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3254</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2147,7 +2187,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3010,7 +3090,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,7 +3993,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1902</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +4047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4736,7 +4896,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -4750,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5599,7 +5799,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1524</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6462,7 +6702,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2657</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,6 +1327,14 @@
         <v>3254</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1338,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2230,6 +2238,14 @@
         <v>1134</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2241,7 +2257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,6 +3149,14 @@
         <v>1324</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3144,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4036,6 +4060,14 @@
         <v>1902</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4047,7 +4079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4939,6 +4971,14 @@
         <v>762</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4950,7 +4990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5842,6 +5882,14 @@
         <v>1524</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5853,7 +5901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6745,6 +6793,14 @@
         <v>2657</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,6 +1335,14 @@
         <v>3221</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1346,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,6 +2254,14 @@
         <v>1113</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1088</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2257,7 +2273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3157,6 +3173,14 @@
         <v>1341</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3168,7 +3192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4068,6 +4092,14 @@
         <v>1893</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4079,7 +4111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4979,6 +5011,14 @@
         <v>764</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4990,7 +5030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5890,6 +5930,14 @@
         <v>1540</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1549</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5901,7 +5949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6801,6 +6849,14 @@
         <v>2573</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,6 +1343,14 @@
         <v>3179</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1354,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,6 +2270,14 @@
         <v>1088</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2273,7 +2289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3181,6 +3197,14 @@
         <v>1318</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3192,7 +3216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4100,6 +4124,14 @@
         <v>1829</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4111,7 +4143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5019,6 +5051,14 @@
         <v>744</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5030,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5938,6 +5978,14 @@
         <v>1549</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5949,7 +5997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6857,6 +6905,14 @@
         <v>2553</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,6 +1351,14 @@
         <v>3160</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1362,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,6 +2286,14 @@
         <v>1095</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2289,7 +2305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3205,6 +3221,14 @@
         <v>1307</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3216,7 +3240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4132,6 +4156,14 @@
         <v>1840</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4143,7 +4175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,6 +5091,14 @@
         <v>722</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5070,7 +5110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5986,6 +6026,14 @@
         <v>1545</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5997,7 +6045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6913,6 +6961,14 @@
         <v>2622</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1359,6 +1359,14 @@
         <v>3301</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1370,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,6 +2302,14 @@
         <v>1106</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2305,7 +2321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3229,6 +3245,14 @@
         <v>1245</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3240,7 +3264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4164,6 +4188,14 @@
         <v>1864</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4175,7 +4207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5099,6 +5131,14 @@
         <v>749</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5110,7 +5150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6034,6 +6074,14 @@
         <v>1554</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6045,7 +6093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6969,6 +7017,14 @@
         <v>2670</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1367,22 @@
         <v>3207</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1378,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2310,6 +2326,22 @@
         <v>1106</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2321,7 +2353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3253,6 +3285,22 @@
         <v>1239</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3264,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,6 +4244,22 @@
         <v>1842</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4207,7 +4271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5139,6 +5203,22 @@
         <v>720</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5150,7 +5230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6082,6 +6162,22 @@
         <v>1543</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6093,7 +6189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7025,6 +7121,22 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,6 +1383,14 @@
         <v>3169</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1394,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,6 +2350,14 @@
         <v>1137</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2353,7 +2369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3301,6 +3317,14 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3312,7 +3336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4260,6 +4284,14 @@
         <v>1993</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4271,7 +4303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5219,6 +5251,14 @@
         <v>722</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5230,7 +5270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6178,6 +6218,14 @@
         <v>1532</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6189,7 +6237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7137,6 +7185,14 @@
         <v>2559</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,6 +1391,22 @@
         <v>3226</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1402,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2358,6 +2374,22 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2369,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3325,6 +3357,22 @@
         <v>1315</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3336,7 +3384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4292,6 +4340,22 @@
         <v>1993</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4303,7 +4367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5259,6 +5323,22 @@
         <v>709</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5270,7 +5350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6226,6 +6306,22 @@
         <v>1521</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6237,7 +6333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7193,6 +7289,22 @@
         <v>2622</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_4.xlsx
+++ b/r_list_4.xlsx
@@ -1404,7 +1404,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>3188</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2387,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -3370,7 +3370,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -4353,7 +4353,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5336,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6319,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1535</v>
       </c>
     </row>
   </sheetData>
@@ -7302,7 +7302,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2654</v>
       </c>
     </row>
   </sheetData>
